--- a/KnowYourBudget/Excel/KnowYourBudget - Ep2 - Calculate.xlsx
+++ b/KnowYourBudget/Excel/KnowYourBudget - Ep2 - Calculate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9c66749522163bc/Documents/Know Your Sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lrtec\Documents\Camtasia\Know Your Sheet\KYB\RepoAssets\knowyoursheet\KnowYourBudget\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="634" documentId="8_{59BE7C0A-8B2B-414C-9A53-A0778CA36D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C24F0488-5282-4181-89C7-594A39D54464}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803B52AA-D552-4C81-814E-D1D1CA684E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22635" yWindow="0" windowWidth="29100" windowHeight="16305" activeTab="1" xr2:uid="{60223861-FE4D-4750-8395-33F358FC710E}"/>
+    <workbookView xWindow="53655" yWindow="1065" windowWidth="17040" windowHeight="12630" activeTab="2" xr2:uid="{60223861-FE4D-4750-8395-33F358FC710E}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -305,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -329,45 +329,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2054,7 +2026,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4679249-C64A-4054-8B9B-6B3BDD28B4D2}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2248,51 +2222,51 @@
         <v>37</v>
       </c>
       <c r="B7" s="6">
-        <f>SUM(B2:B6)</f>
+        <f t="shared" ref="B7:M7" si="0">SUM(B2:B6)</f>
         <v>3000</v>
       </c>
       <c r="C7" s="6">
-        <f>SUM(C2:C6)</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="D7" s="6">
-        <f>SUM(D2:D6)</f>
+        <f t="shared" si="0"/>
         <v>3400</v>
       </c>
       <c r="E7" s="6">
-        <f>SUM(E2:E6)</f>
+        <f t="shared" si="0"/>
         <v>3400</v>
       </c>
       <c r="F7" s="6">
-        <f>SUM(F2:F6)</f>
+        <f t="shared" si="0"/>
         <v>3400</v>
       </c>
       <c r="G7" s="6">
-        <f>SUM(G2:G6)</f>
+        <f t="shared" si="0"/>
         <v>3400</v>
       </c>
       <c r="H7" s="6">
-        <f>SUM(H2:H6)</f>
+        <f t="shared" si="0"/>
         <v>3400</v>
       </c>
       <c r="I7" s="6">
-        <f>SUM(I2:I6)</f>
+        <f t="shared" si="0"/>
         <v>3400</v>
       </c>
       <c r="J7" s="6">
-        <f>SUM(J2:J6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="6">
-        <f>SUM(K2:K6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L7" s="6">
-        <f>SUM(L2:L6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="6">
-        <f>SUM(M2:M6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N7" s="6">
@@ -2464,47 +2438,47 @@
         <v>1510.99</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" ref="C14:M14" si="0">SUM(C10:C13)</f>
+        <f t="shared" ref="C14:M14" si="1">SUM(C10:C13)</f>
         <v>1523.97</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1523.97</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1523.97</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1523.97</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1523.97</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1512.98</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1612.98</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N14" s="6">
@@ -2763,47 +2737,47 @@
         <v>465</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" ref="C24:M24" si="1">SUM(C18:C23)</f>
+        <f t="shared" ref="C24:M24" si="2">SUM(C18:C23)</f>
         <v>405</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>365</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>345</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>320</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>325</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>368</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>490</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N24" s="6">
@@ -2843,110 +2817,105 @@
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17">
         <v>100</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="18"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="17">
         <v>110</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="18"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17">
         <v>300</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19">
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17">
         <v>300</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19">
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17">
         <v>300</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19">
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17">
         <v>300</v>
       </c>
-      <c r="N29" s="18"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17">
         <v>125</v>
       </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="18"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17">
         <v>500</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="18"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -2957,47 +2926,47 @@
         <v>110</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" ref="C32:M32" si="2">SUM(C27:C31)</f>
+        <f t="shared" ref="C32:M32" si="3">SUM(C27:C31)</f>
         <v>0</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="N32" s="9">
@@ -3037,224 +3006,224 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="17">
         <v>50</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="17">
         <v>32.704582521121026</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="17">
         <v>29.769104195589385</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="17">
         <v>16.159020211962034</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="17">
         <v>26.976720980544989</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="17">
         <v>37.224066430587357</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="17">
         <v>39.400112506494231</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="17">
         <v>38.173693215978162</v>
       </c>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
       <c r="N35" s="6">
-        <f t="shared" ref="N35:N40" si="3">AVERAGEIF(B35:M35,"&gt;0",B35:M35)</f>
+        <f t="shared" ref="N35:N40" si="4">AVERAGEIF(B35:M35,"&gt;0",B35:M35)</f>
         <v>33.800912507784645</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="17">
         <v>100</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="17">
         <v>44.100602491589044</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="17">
         <v>33.536821499776046</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="17">
         <v>12.384095683194479</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="17">
         <v>22.787149023804687</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="17">
         <v>35.962740679795651</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="17">
         <v>46.365372329899905</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="17">
         <v>4.7239186707028757</v>
       </c>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
       <c r="N36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37.482587547345332</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="17">
         <v>55</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="17">
         <v>7.6561608768618674</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="17">
         <v>47.662463882099019</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="17">
         <v>14.594522233906842</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="17">
         <v>8.8950507135094448</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="17">
         <v>9.5413699125393876</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="17">
         <v>1.8871070491508379</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="17">
         <v>28.054155398634922</v>
       </c>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
       <c r="N37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.661353758337789</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="A38" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="17">
         <v>230</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="17">
         <v>17.244784807632684</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="17">
         <v>30.795577967218978</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="17">
         <v>32.258284348899139</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="17">
         <v>14.282405804353242</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="17">
         <v>20.305987051107216</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="17">
         <v>34.815960722361488</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I38" s="17">
         <v>39.236161598586911</v>
       </c>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
       <c r="N38" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52.367395287519955</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+      <c r="A39" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="17">
         <v>34</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="17">
         <v>33.414636375529128</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="17">
         <v>43.5106720339109</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="17">
         <v>43.595061810175217</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="17">
         <v>1.9786206714752674</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="17">
         <v>1.6032359390939444</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="17">
         <v>17.03634563837549</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="17">
         <v>37.625189381996528</v>
       </c>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
       <c r="N39" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26.595470231319556</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+      <c r="A40" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="17">
         <v>800</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="17">
         <v>703.66658193353078</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="17">
         <v>1177.3358916606744</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="17">
         <v>582.7493628340942</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="17">
         <v>527.93537341983188</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="17">
         <v>455.32372286555324</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="17">
         <v>535.35825273737737</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="17">
         <v>986.39308755261914</v>
       </c>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
       <c r="N40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>721.09528412546024</v>
       </c>
     </row>
@@ -3267,47 +3236,47 @@
         <v>1269</v>
       </c>
       <c r="C41" s="6">
-        <f t="shared" ref="C41:M41" si="4">SUM(C35:C40)</f>
+        <f t="shared" ref="C41:M41" si="5">SUM(C35:C40)</f>
         <v>838.78734900626455</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1362.6105312392688</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>701.74034712223192</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>602.85532061351955</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>559.96112287867675</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>674.86315098365935</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1134.2062058185186</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L41" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M41" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N41" s="6">
@@ -3338,47 +3307,47 @@
         <v>3354.99</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" ref="C43:M43" si="5">SUM(C41,C24,C14,C32)</f>
+        <f t="shared" ref="C43:M43" si="6">SUM(C41,C24,C14,C32)</f>
         <v>2767.7573490062646</v>
       </c>
       <c r="D43" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3551.5805312392686</v>
       </c>
       <c r="E43" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2570.7103471222317</v>
       </c>
       <c r="F43" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2546.8253206135196</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3208.9311228786769</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2680.8431509836591</v>
       </c>
       <c r="I43" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3237.1862058185188</v>
       </c>
       <c r="J43" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="K43" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M43" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="N43" s="14">
@@ -3391,51 +3360,51 @@
         <v>39</v>
       </c>
       <c r="B44" s="8">
-        <f t="shared" ref="B44:M44" si="6">B7-B43</f>
+        <f t="shared" ref="B44:M44" si="7">B7-B43</f>
         <v>-354.98999999999978</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>232.24265099373542</v>
       </c>
       <c r="D44" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-151.58053123926857</v>
       </c>
       <c r="E44" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>829.28965287776828</v>
       </c>
       <c r="F44" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>853.17467938648042</v>
       </c>
       <c r="G44" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>191.06887712132311</v>
       </c>
       <c r="H44" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>719.15684901634086</v>
       </c>
       <c r="I44" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>162.81379418148117</v>
       </c>
       <c r="J44" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-300</v>
       </c>
       <c r="K44" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L44" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M44" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-300</v>
       </c>
       <c r="N44" s="14">
@@ -3471,47 +3440,47 @@
         <v>645.01000000000022</v>
       </c>
       <c r="C47" s="13">
-        <f t="shared" ref="C47:M47" si="7">B47+C44</f>
+        <f t="shared" ref="C47:M47" si="8">B47+C44</f>
         <v>877.25265099373564</v>
       </c>
       <c r="D47" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>725.67211975446708</v>
       </c>
       <c r="E47" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1554.9617726322354</v>
       </c>
       <c r="F47" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2408.1364520187158</v>
       </c>
       <c r="G47" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2599.2053291400389</v>
       </c>
       <c r="H47" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3318.3621781563797</v>
       </c>
       <c r="I47" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3481.1759723378609</v>
       </c>
       <c r="J47" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3181.1759723378609</v>
       </c>
       <c r="K47" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3181.1759723378609</v>
       </c>
       <c r="L47" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3181.1759723378609</v>
       </c>
       <c r="M47" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2881.1759723378609</v>
       </c>
       <c r="N47" s="12">
@@ -3526,51 +3495,51 @@
       <c r="A48" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="18">
         <f>IrregExps!E9</f>
         <v>520.83333333333326</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="18">
         <f>IrregExps!F9</f>
         <v>782.08333333333326</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="18">
         <f>IrregExps!G9</f>
         <v>633.33333333333326</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="18">
         <f>IrregExps!H9</f>
         <v>784.58333333333326</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="18">
         <f>IrregExps!I9</f>
         <v>835.83333333333326</v>
       </c>
-      <c r="G48" s="20">
+      <c r="G48" s="18">
         <f>IrregExps!J9</f>
         <v>187.08333333333326</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="18">
         <f>IrregExps!K9</f>
         <v>213.33333333333331</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="18">
         <f>IrregExps!L9</f>
         <v>364.58333333333331</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J48" s="18">
         <f>IrregExps!M9</f>
         <v>215.83333333333326</v>
       </c>
-      <c r="K48" s="20">
+      <c r="K48" s="18">
         <f>IrregExps!N9</f>
         <v>367.08333333333331</v>
       </c>
-      <c r="L48" s="20">
+      <c r="L48" s="18">
         <f>IrregExps!O9</f>
         <v>518.33333333333326</v>
       </c>
-      <c r="M48" s="20">
+      <c r="M48" s="18">
         <f>IrregExps!P9</f>
         <v>369.58333333333326</v>
       </c>
@@ -3596,8 +3565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A295A6E7-9C64-428D-A9DF-63B55577E08D}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3970,10 +3939,10 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="10">
         <f>SUM(D2:D6)</f>
         <v>169.58333333333334</v>
